--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,13 +369,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -781,7 +781,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="88.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -375,7 +375,7 @@
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDiEndpointQryr-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDiEndpointQryr-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
